--- a/HW02/question1/result.xlsx
+++ b/HW02/question1/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhyan\Documents\all\UW-Madison\course_enroll\ME_759\HW02\question1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175A9C17-B176-4928-AD40-0DCBDEF3E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2AAC9A-3F06-4B87-9F3E-5DC0C3BB63B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="result_1" localSheetId="0">Sheet1!$B$1:$B$21</definedName>
+    <definedName name="result" localSheetId="0">Sheet1!$B$1:$B$21</definedName>
+    <definedName name="result_1" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{3FF8D996-7B80-4023-8539-B96F78546F2F}" name="result" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{2C8DA338-3BF4-4C54-87E9-FD0C2C8ED199}" name="result1" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="936" sourceFile="C:\Users\jhyan\Documents\all\UW-Madison\course_enroll\ME_759\HW02\question1\result.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_1" connectionId="1" xr16:uid="{7E00CC4E-C4A9-4F72-8046-F8A0FAB43252}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result" connectionId="1" xr16:uid="{12C5C69C-39D1-4E5D-9996-DA313D60D032}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,197 +365,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10</v>
       </c>
-      <c r="B1">
-        <v>4.9410000000000001E-3</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>1.688E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>7.8609999999999999E-3</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>4.6909999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>1.3573E-2</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1.0992999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>7.0687E-2</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2.4872999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>9.3182000000000001E-2</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>6.8968000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>0.15291299999999999</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>0.11532100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.30695800000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.241511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>0.58984400000000003</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>0.44990000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>0.98933899999999997</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>0.92972299999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>2.0949599999999999</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>1.8924099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
       <c r="B11">
-        <v>3.9758800000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1522500000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>8.1027100000000001</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>7.5199199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>22</v>
       </c>
       <c r="B13">
-        <v>15.6943</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.422800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
-      <c r="B14">
-        <v>30.966100000000001</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>29.9788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
       <c r="B15">
-        <v>56.626300000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61.3611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25</v>
       </c>
       <c r="B16">
-        <v>111.91500000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114.14700000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
-      <c r="B17">
-        <v>217.053</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>223.26599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>27</v>
       </c>
       <c r="B18">
-        <v>415.149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>439.72899999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28</v>
       </c>
-      <c r="B19">
-        <v>809.476</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>848.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
-      <c r="B20">
-        <v>1879.56</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>1865.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
       <c r="B21">
-        <v>17451.599999999999</v>
+        <v>17373</v>
       </c>
     </row>
   </sheetData>
